--- a/Homicidios intencionados.xlsx
+++ b/Homicidios intencionados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Desktop\Proyecto Samsung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2429575-A1F9-45E6-9D1C-5B35D78A2277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EDA079-899A-4E74-8E26-18D8AFDF0D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{70C545F1-688A-43B5-A908-50A5E78A9D60}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{70C545F1-688A-43B5-A908-50A5E78A9D60}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Fecha</t>
   </si>
@@ -57,99 +57,6 @@
   </si>
   <si>
     <t>Homicidios por 100.000</t>
-  </si>
-  <si>
-    <t>12,37</t>
-  </si>
-  <si>
-    <t>10,54</t>
-  </si>
-  <si>
-    <t>8,74</t>
-  </si>
-  <si>
-    <t>9,43</t>
-  </si>
-  <si>
-    <t>9,92</t>
-  </si>
-  <si>
-    <t>11,42</t>
-  </si>
-  <si>
-    <t>15,35</t>
-  </si>
-  <si>
-    <t>17,60</t>
-  </si>
-  <si>
-    <t>19,47</t>
-  </si>
-  <si>
-    <t>22,61</t>
-  </si>
-  <si>
-    <t>25,37</t>
-  </si>
-  <si>
-    <t>25,31</t>
-  </si>
-  <si>
-    <t>24,62</t>
-  </si>
-  <si>
-    <t>25,14</t>
-  </si>
-  <si>
-    <t>22,45</t>
-  </si>
-  <si>
-    <t>23,09</t>
-  </si>
-  <si>
-    <t>26,12</t>
-  </si>
-  <si>
-    <t>24,76</t>
-  </si>
-  <si>
-    <t>21,32</t>
-  </si>
-  <si>
-    <t>14,54</t>
-  </si>
-  <si>
-    <t>12,63</t>
-  </si>
-  <si>
-    <t>14,17</t>
-  </si>
-  <si>
-    <t>12,67</t>
-  </si>
-  <si>
-    <t>13,54</t>
-  </si>
-  <si>
-    <t>12,74</t>
-  </si>
-  <si>
-    <t>12,88</t>
-  </si>
-  <si>
-    <t>12,80</t>
-  </si>
-  <si>
-    <t>13,01</t>
-  </si>
-  <si>
-    <t>12,28</t>
-  </si>
-  <si>
-    <t>10,87</t>
-  </si>
-  <si>
-    <t>12,48</t>
   </si>
 </sst>
 </file>
@@ -530,7 +437,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -577,8 +484,8 @@
       <c r="F2" s="1">
         <v>93</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
+      <c r="G2" s="1">
+        <v>12.37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -600,8 +507,8 @@
       <c r="F3" s="1">
         <v>109</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
+      <c r="G3" s="1">
+        <v>10.54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -623,8 +530,8 @@
       <c r="F4" s="1">
         <v>127</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
+      <c r="G4" s="1">
+        <v>8.74</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -646,8 +553,8 @@
       <c r="F5" s="1">
         <v>106</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
+      <c r="G5" s="1">
+        <v>9.43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -669,8 +576,8 @@
       <c r="F6" s="1">
         <v>62</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
+      <c r="G6" s="1">
+        <v>9.92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -692,8 +599,8 @@
       <c r="F7" s="1">
         <v>77</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
+      <c r="G7" s="1">
+        <v>11.42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -715,8 +622,8 @@
       <c r="F8" s="1">
         <v>67</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
+      <c r="G8" s="1">
+        <v>15.35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -732,10 +639,14 @@
       <c r="D9" s="1">
         <v>1.623</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -745,12 +656,20 @@
       <c r="B10" s="1">
         <v>1.978</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>19.47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -766,10 +685,14 @@
       <c r="D11" s="1">
         <v>2.0670000000000002</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>22.61</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -791,8 +714,8 @@
       <c r="F12" s="1">
         <v>33</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
+      <c r="G12" s="1">
+        <v>25.37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -814,8 +737,8 @@
       <c r="F13" s="1">
         <v>19</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
+      <c r="G13" s="1">
+        <v>25.31</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -837,8 +760,8 @@
       <c r="F14" s="1">
         <v>45</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>19</v>
+      <c r="G14" s="1">
+        <v>24.62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -854,10 +777,14 @@
       <c r="D15" s="1">
         <v>2.2069999999999999</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>25.14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -873,10 +800,14 @@
       <c r="D16" s="1">
         <v>1.9359999999999999</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>22.45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -892,10 +823,14 @@
       <c r="D17" s="1">
         <v>1.964</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>22</v>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>23.09</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -911,10 +846,14 @@
       <c r="D18" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>23</v>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>26.12</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -924,12 +863,20 @@
       <c r="B19" s="1">
         <v>2.2389999999999999</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>24</v>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>24.76</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -939,12 +886,20 @@
       <c r="B20" s="1">
         <v>1.9019999999999999</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>25</v>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>21.32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -954,12 +909,20 @@
       <c r="B21" s="1">
         <v>1.2789999999999999</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>26</v>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>14.54</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -969,12 +932,20 @@
       <c r="B22" s="1">
         <v>1.095</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>27</v>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>12.63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -984,12 +955,20 @@
       <c r="B23" s="1">
         <v>1.21</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>28</v>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>14.17</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -999,12 +978,20 @@
       <c r="B24" s="1">
         <v>1.0660000000000001</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>29</v>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>12.67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1014,12 +1001,20 @@
       <c r="B25" s="1">
         <v>1.121</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>30</v>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>13.54</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1029,12 +1024,20 @@
       <c r="B26" s="1">
         <v>1.038</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>31</v>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>12.74</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1044,12 +1047,20 @@
       <c r="B27" s="1">
         <v>1.032</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>32</v>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>12.88</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1059,12 +1070,20 @@
       <c r="B28" s="1">
         <v>1.0069999999999999</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>33</v>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>12.8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1074,12 +1093,20 @@
       <c r="B29" s="1">
         <v>1.0049999999999999</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>34</v>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>13.01</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1089,12 +1116,20 @@
       <c r="B30" s="1">
         <v>930</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>35</v>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>12.28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1104,12 +1139,20 @@
       <c r="B31" s="1">
         <v>807</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>36</v>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10.87</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1119,12 +1162,20 @@
       <c r="B32" s="1">
         <v>908</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>37</v>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>12.48</v>
       </c>
     </row>
   </sheetData>

--- a/Homicidios intencionados.xlsx
+++ b/Homicidios intencionados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Desktop\Proyecto Samsung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EDA079-899A-4E74-8E26-18D8AFDF0D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD984B0-2882-4409-82BC-79705C73F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{70C545F1-688A-43B5-A908-50A5E78A9D60}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B2" sqref="B2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -470,13 +470,13 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1">
-        <v>1.389</v>
+        <v>1389</v>
       </c>
       <c r="C2" s="1">
         <v>153</v>
       </c>
       <c r="D2" s="1">
-        <v>1.236</v>
+        <v>1236</v>
       </c>
       <c r="E2" s="1">
         <v>90</v>
@@ -493,13 +493,13 @@
         <v>2021</v>
       </c>
       <c r="B3" s="1">
-        <v>1.1719999999999999</v>
+        <v>1172</v>
       </c>
       <c r="C3" s="1">
         <v>142</v>
       </c>
       <c r="D3" s="1">
-        <v>1.03</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1">
         <v>90</v>
@@ -539,7 +539,7 @@
         <v>2019</v>
       </c>
       <c r="B5" s="1">
-        <v>1.026</v>
+        <v>1026</v>
       </c>
       <c r="C5" s="1">
         <v>145</v>
@@ -562,7 +562,7 @@
         <v>2018</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0680000000000001</v>
+        <v>1068</v>
       </c>
       <c r="C6" s="1">
         <v>152</v>
@@ -585,13 +585,13 @@
         <v>2017</v>
       </c>
       <c r="B7" s="1">
-        <v>1.216</v>
+        <v>1216</v>
       </c>
       <c r="C7" s="1">
         <v>191</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0249999999999999</v>
+        <v>1025</v>
       </c>
       <c r="E7" s="1">
         <v>115</v>
@@ -608,13 +608,13 @@
         <v>2016</v>
       </c>
       <c r="B8" s="1">
-        <v>1.6160000000000001</v>
+        <v>1616</v>
       </c>
       <c r="C8" s="1">
         <v>170</v>
       </c>
       <c r="D8" s="1">
-        <v>1.446</v>
+        <v>1446</v>
       </c>
       <c r="E8" s="1">
         <v>84</v>
@@ -631,13 +631,13 @@
         <v>2014</v>
       </c>
       <c r="B9" s="1">
-        <v>1.81</v>
+        <v>181</v>
       </c>
       <c r="C9" s="1">
         <v>187</v>
       </c>
       <c r="D9" s="1">
-        <v>1.623</v>
+        <v>1623</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>2013</v>
       </c>
       <c r="B10" s="1">
-        <v>1.978</v>
+        <v>1978</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>2012</v>
       </c>
       <c r="B11" s="1">
-        <v>2.2679999999999998</v>
+        <v>2268</v>
       </c>
       <c r="C11" s="1">
         <v>201</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0670000000000002</v>
+        <v>2067</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="1">
-        <v>2.5129999999999999</v>
+        <v>2513</v>
       </c>
       <c r="C12" s="1">
         <v>233</v>
       </c>
       <c r="D12" s="1">
-        <v>2.2799999999999998</v>
+        <v>228</v>
       </c>
       <c r="E12" s="1">
         <v>83</v>
@@ -723,13 +723,13 @@
         <v>2010</v>
       </c>
       <c r="B13" s="1">
-        <v>2.4740000000000002</v>
+        <v>2474</v>
       </c>
       <c r="C13" s="1">
         <v>210</v>
       </c>
       <c r="D13" s="1">
-        <v>2.2639999999999998</v>
+        <v>2264</v>
       </c>
       <c r="E13" s="1">
         <v>65</v>
@@ -746,13 +746,13 @@
         <v>2009</v>
       </c>
       <c r="B14" s="1">
-        <v>2.375</v>
+        <v>2375</v>
       </c>
       <c r="C14" s="1">
         <v>180</v>
       </c>
       <c r="D14" s="1">
-        <v>2.1949999999999998</v>
+        <v>2195</v>
       </c>
       <c r="E14" s="1">
         <v>54</v>
@@ -769,13 +769,13 @@
         <v>2008</v>
       </c>
       <c r="B15" s="1">
-        <v>2.3940000000000001</v>
+        <v>2394</v>
       </c>
       <c r="C15" s="1">
         <v>187</v>
       </c>
       <c r="D15" s="1">
-        <v>2.2069999999999999</v>
+        <v>2207</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>2007</v>
       </c>
       <c r="B16" s="1">
-        <v>2.1110000000000002</v>
+        <v>2111</v>
       </c>
       <c r="C16" s="1">
         <v>175</v>
       </c>
       <c r="D16" s="1">
-        <v>1.9359999999999999</v>
+        <v>1936</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -815,13 +815,13 @@
         <v>2006</v>
       </c>
       <c r="B17" s="1">
-        <v>2.1440000000000001</v>
+        <v>2144</v>
       </c>
       <c r="C17" s="1">
         <v>180</v>
       </c>
       <c r="D17" s="1">
-        <v>1.964</v>
+        <v>1964</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>2005</v>
       </c>
       <c r="B18" s="1">
-        <v>2.3940000000000001</v>
+        <v>2394</v>
       </c>
       <c r="C18" s="1">
         <v>214</v>
       </c>
       <c r="D18" s="1">
-        <v>2.1800000000000002</v>
+        <v>218</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>2004</v>
       </c>
       <c r="B19" s="1">
-        <v>2.2389999999999999</v>
+        <v>2239</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>2003</v>
       </c>
       <c r="B20" s="1">
-        <v>1.9019999999999999</v>
+        <v>1902</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>2002</v>
       </c>
       <c r="B21" s="1">
-        <v>1.2789999999999999</v>
+        <v>1279</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>2001</v>
       </c>
       <c r="B22" s="1">
-        <v>1.095</v>
+        <v>1095</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>2000</v>
       </c>
       <c r="B23" s="1">
-        <v>1.21</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>1999</v>
       </c>
       <c r="B24" s="1">
-        <v>1.0660000000000001</v>
+        <v>1066</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>1998</v>
       </c>
       <c r="B25" s="1">
-        <v>1.121</v>
+        <v>1121</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>1997</v>
       </c>
       <c r="B26" s="1">
-        <v>1.038</v>
+        <v>1038</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>1996</v>
       </c>
       <c r="B27" s="1">
-        <v>1.032</v>
+        <v>1032</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>1995</v>
       </c>
       <c r="B28" s="1">
-        <v>1.0069999999999999</v>
+        <v>1007</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>1994</v>
       </c>
       <c r="B29" s="1">
-        <v>1.0049999999999999</v>
+        <v>1005</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>

--- a/Homicidios intencionados.xlsx
+++ b/Homicidios intencionados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Desktop\Proyecto Samsung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD984B0-2882-4409-82BC-79705C73F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AF0B94-2216-4412-8143-CACA6139990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{70C545F1-688A-43B5-A908-50A5E78A9D60}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D32"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -631,7 +631,7 @@
         <v>2014</v>
       </c>
       <c r="B9" s="1">
-        <v>181</v>
+        <v>1810</v>
       </c>
       <c r="C9" s="1">
         <v>187</v>
@@ -953,7 +953,7 @@
         <v>2000</v>
       </c>
       <c r="B23" s="1">
-        <v>121</v>
+        <v>1210</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
